--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2308542.522844202</v>
+        <v>-2310816.542971639</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0459034711861</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794427</v>
       </c>
       <c r="S2" t="n">
         <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>68.22861617572339</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.76522168140774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>93.08887836426926</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694834</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.4059850665347</v>
+        <v>58.40598506653463</v>
       </c>
       <c r="S3" t="n">
-        <v>73.39324459329177</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>70.4257948724472</v>
+        <v>199.1696684035947</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.5270607464017</v>
+        <v>284.6181835562316</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>48.91401559658166</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>238.4419995287271</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>211.4867625038029</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>281.7170166114086</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>27.45481249848809</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>116.5237894294641</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>184.5226825702233</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.15166025912661</v>
+        <v>196.9899243971807</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>43.54171107304281</v>
       </c>
       <c r="S22" t="n">
-        <v>169.3969387032857</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>88.71883721364188</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>179.1429488112684</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3323,7 +3323,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515427</v>
+        <v>280.7771218515432</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3512,7 +3512,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231196</v>
       </c>
       <c r="G38" t="n">
         <v>363.9465890348609</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515427</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231184</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515432</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200.294323832044</v>
+        <v>760.9449936308126</v>
       </c>
       <c r="C2" t="n">
-        <v>831.3318068916321</v>
+        <v>391.9824766904009</v>
       </c>
       <c r="D2" t="n">
-        <v>473.0661082848816</v>
+        <v>391.9824766904009</v>
       </c>
       <c r="E2" t="n">
-        <v>473.0661082848816</v>
+        <v>391.9824766904009</v>
       </c>
       <c r="F2" t="n">
-        <v>466.1206075356781</v>
+        <v>391.9824766904009</v>
       </c>
       <c r="G2" t="n">
-        <v>47.89242221124766</v>
+        <v>377.7946954063744</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034134</v>
+        <v>141.6681220034137</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971214</v>
+        <v>402.9583913971219</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883417</v>
+        <v>779.3887029883426</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811276</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006096</v>
+        <v>2001.558186006098</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.14520479493</v>
+        <v>2270.145204794932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562385</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562383</v>
+        <v>2322.985235382644</v>
       </c>
       <c r="S2" t="n">
-        <v>2212.419126916161</v>
+        <v>2140.783251736422</v>
       </c>
       <c r="T2" t="n">
-        <v>2212.419126916161</v>
+        <v>1920.991273416477</v>
       </c>
       <c r="U2" t="n">
-        <v>1958.636191376443</v>
+        <v>1920.991273416477</v>
       </c>
       <c r="V2" t="n">
-        <v>1627.573304032873</v>
+        <v>1589.928386072907</v>
       </c>
       <c r="W2" t="n">
-        <v>1274.804648762759</v>
+        <v>1521.010591956014</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.804648762759</v>
+        <v>1147.544833694934</v>
       </c>
       <c r="Y2" t="n">
-        <v>1200.294323832044</v>
+        <v>1147.544833694934</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.825266691135</v>
+        <v>909.1326115355728</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>734.6795822544458</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>585.7451725931945</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>426.507717587739</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>279.973159614624</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>141.9215922761662</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J3" t="n">
-        <v>110.051206896601</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442392</v>
+        <v>280.7525288588861</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408252</v>
+        <v>655.2660752554723</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563169</v>
+        <v>1144.284940877816</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723573</v>
+        <v>1661.953694139592</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907025</v>
+        <v>1930.474537907027</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403385</v>
+        <v>2240.245317403388</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562385</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050732</v>
+        <v>2335.625166050734</v>
       </c>
       <c r="S3" t="n">
-        <v>2261.490575552457</v>
+        <v>2174.824742397255</v>
       </c>
       <c r="T3" t="n">
-        <v>2062.041867641634</v>
+        <v>1975.376034486432</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.041867641634</v>
+        <v>1747.197104254329</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.889759409891</v>
+        <v>1747.197104254329</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.65240268169</v>
+        <v>1492.959747526128</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.800902476157</v>
+        <v>1285.108247320595</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.040603711203</v>
+        <v>1077.347948555641</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="D4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="E4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="K4" t="n">
-        <v>90.6907364200009</v>
+        <v>90.69073642000106</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663081</v>
+        <v>200.9842782663084</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420744</v>
+        <v>327.6624769420748</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148799</v>
+        <v>456.7631676148806</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890151</v>
+        <v>559.9922554890159</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="R4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="S4" t="n">
-        <v>408.4467587860337</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="T4" t="n">
-        <v>408.4467587860337</v>
+        <v>396.9869990295951</v>
       </c>
       <c r="U4" t="n">
-        <v>408.4467587860337</v>
+        <v>396.9869990295951</v>
       </c>
       <c r="V4" t="n">
-        <v>337.3095922482083</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="W4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="X4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.89242221124766</v>
+        <v>195.8055157936408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>454.3501600911858</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="D5" t="n">
-        <v>454.3501600911858</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="E5" t="n">
-        <v>454.3501600911858</v>
+        <v>752.4220013132363</v>
       </c>
       <c r="F5" t="n">
-        <v>447.4046593419824</v>
+        <v>341.4360965236287</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4668,19 +4668,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C7" t="n">
-        <v>678.7208876442307</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.455337753612</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1167.455337753612</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.455337753612</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1167.455337753612</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>756.4694329640045</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>338.5056248621913</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,7 +4890,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.611298585128</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>81.67511565722111</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>81.67511565722111</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>81.67511565722111</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>81.67511565722111</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.611298585128</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6097761177758</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177758</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
         <v>801.6097761177758</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1748.812211458733</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1527.045596028259</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1237.942729153903</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>983.2582409480156</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2582409480156</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="X13" t="n">
-        <v>983.2582409480156</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.2582409480156</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,16 +5279,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5306,13 +5306,13 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1199.337709763971</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>909.9205397270104</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>909.9205397270104</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>689.1279605834802</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5519,22 +5519,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.8310435707792</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8948606428723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>841.6225995718539</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.479508401019</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5783,13 +5783,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.7441371531723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>539.8079542252655</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>389.6913148129298</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1912.361939768297</v>
       </c>
       <c r="S22" t="n">
-        <v>1695.404989970024</v>
+        <v>1720.676055595123</v>
       </c>
       <c r="T22" t="n">
-        <v>1473.63837453955</v>
+        <v>1498.909440164649</v>
       </c>
       <c r="U22" t="n">
-        <v>1473.63837453955</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V22" t="n">
-        <v>1218.953886333663</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W22" t="n">
-        <v>929.5367162967025</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X22" t="n">
-        <v>929.5367162967025</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.7441371531723</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,46 +5993,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1675.042594847043</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.939727972687</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.2552397668</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>841.8380697298394</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>613.848518831822</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.484443350884</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.9395339702917</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>343.0033510423848</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8867116300491</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>983.005168837492</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W31" t="n">
-        <v>693.5879988005314</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X31" t="n">
-        <v>693.5879988005314</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.5879988005314</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6844,13 +6844,13 @@
         <v>463.8981507430896</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6883,7 +6883,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6929,46 +6929,46 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468333</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973143</v>
@@ -7114,10 +7114,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
         <v>2127.355355052752</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
         <v>698.9037015467788</v>
@@ -7166,58 +7166,58 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2265.111559082034</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3145.076209411489</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768667</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,52 +7397,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>792.1780824632688</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1243.212295711678</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M41" t="n">
-        <v>1776.744200383602</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N41" t="n">
-        <v>2323.523017442385</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O41" t="n">
-        <v>2826.495488321721</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7558,19 +7558,19 @@
         <v>350.0437186415468</v>
       </c>
       <c r="G43" t="n">
-        <v>229.790514964339</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.02296113027</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7640,49 +7640,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>842.4067862271434</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1706.925601880498</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7731,7 +7731,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,7 +7825,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
         <v>2271.591606277852</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>63.30438414308214</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>276.5261752512592</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>253.8327713817628</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
-        <v>89.52456338961929</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>104.3976710547479</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>85.51392558917598</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>165.3902622431542</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>131.2335379367247</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>21.1383958559137</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>21.13839585591376</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>71.87446026386789</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.16756605971632</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>281.0123525416896</v>
       </c>
       <c r="X2" t="n">
-        <v>355.2662889891534</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>312.4727169746458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.24523590197778</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>136.3167509018937</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>67.61496075360466</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.4329930929682</v>
+        <v>21.59472895491405</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.39044159700452</v>
       </c>
       <c r="S22" t="n">
-        <v>20.37208662815615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>92.48912964370379</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>130.8301120625273</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>72.99469451255962</v>
+        <v>48.93987327667864</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38394.48724947822</v>
+        <v>38394.48724947823</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
         <v>39708.17868869831</v>
@@ -26326,34 +26326,34 @@
         <v>39708.17868869831</v>
       </c>
       <c r="G2" t="n">
-        <v>39708.17868869831</v>
+        <v>39708.17868869832</v>
       </c>
       <c r="H2" t="n">
         <v>39708.17868869831</v>
       </c>
       <c r="I2" t="n">
-        <v>39708.17868869832</v>
+        <v>39708.17868869831</v>
       </c>
       <c r="J2" t="n">
+        <v>39708.17868869831</v>
+      </c>
+      <c r="K2" t="n">
         <v>39708.1786886983</v>
-      </c>
-      <c r="K2" t="n">
-        <v>39708.17868869832</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321414</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771933</v>
+        <v>501884.681477194</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904345</v>
+        <v>83720.31263904275</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.561462996</v>
+        <v>156634.5614629962</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848962</v>
+        <v>19465.25531848947</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950525</v>
+        <v>84741.61795950531</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587446</v>
+        <v>194330.6670587444</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,19 +26427,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>25090.72367499379</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26451,13 +26451,13 @@
         <v>62292.78252777373</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777372</v>
+        <v>62292.78252777371</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777375</v>
+        <v>62292.78252777374</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777371</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237212</v>
+        <v>76841.33769237218</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734662.1989788319</v>
+        <v>-734795.0790410191</v>
       </c>
       <c r="C6" t="n">
-        <v>-326591.8081369703</v>
+        <v>-326591.8081369696</v>
       </c>
       <c r="D6" t="n">
         <v>-242871.4954979268</v>
       </c>
       <c r="E6" t="n">
-        <v>-809143.4772334158</v>
+        <v>-809210.6727236416</v>
       </c>
       <c r="F6" t="n">
-        <v>-81766.06324000916</v>
+        <v>-81833.25873023494</v>
       </c>
       <c r="G6" t="n">
-        <v>-81766.06324000914</v>
+        <v>-81833.25873023494</v>
       </c>
       <c r="H6" t="n">
-        <v>-81766.06324000916</v>
+        <v>-81833.25873023493</v>
       </c>
       <c r="I6" t="n">
-        <v>-81766.06324000916</v>
+        <v>-81833.25873023494</v>
       </c>
       <c r="J6" t="n">
-        <v>-238400.6247030052</v>
+        <v>-238467.8201932312</v>
       </c>
       <c r="K6" t="n">
-        <v>-101231.3185584988</v>
+        <v>-101298.5140487244</v>
       </c>
       <c r="L6" t="n">
-        <v>-137408.5764689749</v>
+        <v>-137408.5764689748</v>
       </c>
       <c r="M6" t="n">
         <v>-195360.253668871</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859252</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322901</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405963</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322901</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479708</v>
+        <v>65.10619578479651</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405963</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395926</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405963</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395926</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540588</v>
+        <v>340.0491884540589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405963</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395926</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.7628040125455</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910658</v>
+        <v>162.0217950910657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.9195164279444</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.594058536745</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.46481168931564</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12.6519648770583</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.2437637269483</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>85.79917482365224</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8971409297816</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375612</v>
+        <v>53.50046549375605</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841866</v>
+        <v>38.95378551841858</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
-        <v>181.7118484513808</v>
+        <v>52.9679749202333</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.25710927439326</v>
+        <v>129.1659864645634</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>118.3328055020462</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>47.83987471325059</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>143.19627911688</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>42.2057561529486</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.8549897605628</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>237.6737460969194</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859216</v>
+        <v>46.9751366185917</v>
       </c>
       <c r="W35" t="n">
         <v>46.97513661859256</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859188</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859301</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185917</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948902</v>
+        <v>1.256834043948904</v>
       </c>
       <c r="H2" t="n">
-        <v>12.8715516525917</v>
+        <v>12.87155165259172</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934009</v>
+        <v>48.45409447934017</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376082</v>
+        <v>106.6722184376084</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179653</v>
+        <v>159.8740035179655</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904665</v>
+        <v>198.3378383904669</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195428</v>
+        <v>220.6890608195432</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469126</v>
+        <v>224.260040546913</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223957</v>
+        <v>211.7623970223961</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624072</v>
+        <v>180.7343065624075</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634871</v>
+        <v>135.7239373634873</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320528</v>
+        <v>78.94960151320541</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648563</v>
+        <v>28.64010577648568</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386322</v>
+        <v>5.50179102738633</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159121</v>
+        <v>0.1005467235159123</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373777</v>
+        <v>0.6724654981373788</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168885</v>
+        <v>6.494600995168896</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446673</v>
+        <v>23.15286912446677</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358445</v>
+        <v>63.53324252358455</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987887</v>
+        <v>108.5884308987889</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881179</v>
+        <v>146.0105459881181</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955978</v>
+        <v>170.3874202955981</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072297</v>
+        <v>174.8970683072299</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853435</v>
+        <v>159.9966485853438</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434436</v>
+        <v>128.4114160434439</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522036</v>
+        <v>85.8396309552205</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610843</v>
+        <v>41.7518490861085</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689383</v>
+        <v>12.49075168689385</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106359</v>
+        <v>2.710507863106363</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324855</v>
+        <v>0.04424115119324862</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582271</v>
+        <v>0.563772484058228</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717695</v>
+        <v>5.012449903717703</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695105</v>
+        <v>16.95417615695108</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291665</v>
+        <v>39.85871462291672</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876491</v>
+        <v>65.50011223876503</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625679</v>
+        <v>83.81759276625694</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832735</v>
+        <v>88.3738994783275</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741104</v>
+        <v>86.27256567411054</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943016</v>
+        <v>79.6866780194303</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464228</v>
+        <v>68.18571934464239</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327573</v>
+        <v>47.20825773327581</v>
       </c>
       <c r="R4" t="n">
-        <v>25.3492609650181</v>
+        <v>25.34926096501814</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814736</v>
+        <v>9.825016835814752</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248788</v>
+        <v>2.408846068248792</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317606</v>
+        <v>0.03075122640317611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33746,13 +33746,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33980,10 +33980,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34451,13 +34451,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299571</v>
+        <v>94.72292908299588</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441495</v>
+        <v>263.9295650441497</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709297</v>
+        <v>380.2326379709301</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851025</v>
+        <v>439.8563610851029</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623059</v>
+        <v>432.1939013623062</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634544</v>
+        <v>362.4643668634547</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786203</v>
+        <v>271.3000189786206</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489423</v>
+        <v>125.7332381489425</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732659</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370083</v>
+        <v>235.2122289370085</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117029</v>
+        <v>378.2965115117031</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235794</v>
+        <v>493.9584501235797</v>
       </c>
       <c r="N3" t="n">
-        <v>320.0815314751556</v>
+        <v>522.8977305674501</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176286</v>
+        <v>271.2331755226621</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690506</v>
+        <v>312.8997772690508</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050479</v>
+        <v>155.9351446050481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288206</v>
+        <v>43.23062041288217</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265729</v>
+        <v>111.4076180265731</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401679</v>
+        <v>127.9577764401681</v>
       </c>
       <c r="N4" t="n">
-        <v>130.404738053339</v>
+        <v>130.4047380533391</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.27180593347</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953577</v>
+        <v>65.46427860953588</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35887,25 +35887,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>628.4456792198461</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>355.1919758584674</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400159</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>624.4350414194028</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37306,10 +37306,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>620.9803766354863</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,13 +37394,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,13 +37552,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>683.5353733496362</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>529.1913967441328</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37628,10 +37628,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,10 +37780,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>358.3296824113143</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>732.8107985467461</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,10 +38017,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>409.0657468192684</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38032,10 +38032,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38099,13 +38099,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
